--- a/dist/exceltocsv-exemplo.xlsx
+++ b/dist/exceltocsv-exemplo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHome\ws-github-02\exceltocsv\dist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3688DED7-0A3F-45C4-A764-A043D30C0CC3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6A54E28-F7EC-4E7A-BA40-F01E46EFF693}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="19605" windowHeight="10095" activeTab="3" xr2:uid="{61C264D4-E676-4BA5-A77A-185EE75A4B25}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="19605" windowHeight="10095" xr2:uid="{61C264D4-E676-4BA5-A77A-185EE75A4B25}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="13">
   <si>
     <t>Josemar Silva</t>
   </si>
@@ -44,9 +44,6 @@
     <t>Col-A(Int)</t>
   </si>
   <si>
-    <t>Col-B(Double)</t>
-  </si>
-  <si>
     <t>Col-C(Date)</t>
   </si>
   <si>
@@ -54,21 +51,6 @@
   </si>
   <si>
     <t>Col-F(Double-fmt)</t>
-  </si>
-  <si>
-    <t>COLUNA-1</t>
-  </si>
-  <si>
-    <t>COLUNA-2</t>
-  </si>
-  <si>
-    <t>COLUNA-3</t>
-  </si>
-  <si>
-    <t>COLUNA-4</t>
-  </si>
-  <si>
-    <t>COLUNA-5</t>
   </si>
   <si>
     <t>Você é o poema mais lindo que escrevi dentro de mim
@@ -76,16 +58,36 @@
   </si>
   <si>
     <t>Col-E(Double-fmt)</t>
+  </si>
+  <si>
+    <t>Col-G(DateTime)</t>
+  </si>
+  <si>
+    <t>Col-B(Text)</t>
+  </si>
+  <si>
+    <t>Col-D(BigInt)</t>
+  </si>
+  <si>
+    <t>Col-E(Multi-Line-Text)</t>
+  </si>
+  <si>
+    <t>Col-B(DoubleDecimal)</t>
+  </si>
+  <si>
+    <t>Vitor Silva</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="5">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.00000"/>
     <numFmt numFmtId="165" formatCode="0_ ;\-0\ "/>
+    <numFmt numFmtId="166" formatCode="#,##0.000"/>
+    <numFmt numFmtId="167" formatCode="#,##0.0000000000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -147,16 +149,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -171,6 +170,11 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -487,10 +491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F90794C-5C2F-416A-AE61-3811430F8DE1}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -501,30 +505,34 @@
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="35.28515625" customWidth="1"/>
     <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -542,6 +550,32 @@
       </c>
       <c r="F2" s="3">
         <v>3.1415926535897931</v>
+      </c>
+      <c r="G2" s="11">
+        <v>38102.624305555553</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="12">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2">
+        <v>38285</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5">
+        <v>2E+19</v>
+      </c>
+      <c r="F3" s="13">
+        <v>3.14159265358979</v>
+      </c>
+      <c r="G3" s="11">
+        <v>38102.624305555553</v>
       </c>
     </row>
   </sheetData>
@@ -552,10 +586,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E36F41EB-05DB-40D4-8B30-D9F738DFEEE4}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -567,10 +601,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -579,6 +613,14 @@
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -592,7 +634,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C2"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -602,13 +644,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -631,51 +673,51 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FBCDF79-F2B5-4481-A032-20F1D7DE6246}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="7"/>
-    <col min="3" max="3" width="10.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="69" style="7" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="7"/>
+    <col min="1" max="2" width="9.140625" style="6"/>
+    <col min="3" max="3" width="10.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="69" style="6" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="6" t="s">
+      <c r="A1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="8">
+      <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="8">
         <v>38285</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="10">
         <v>123456789012345</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>11</v>
+      <c r="E2" s="9" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/dist/exceltocsv-exemplo.xlsx
+++ b/dist/exceltocsv-exemplo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHome\ws-github-02\exceltocsv\dist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6A54E28-F7EC-4E7A-BA40-F01E46EFF693}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AE0A409-67DA-49D3-8FCA-83FA5F5516BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="19605" windowHeight="10095" xr2:uid="{61C264D4-E676-4BA5-A77A-185EE75A4B25}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="19605" windowHeight="10095" activeTab="3" xr2:uid="{61C264D4-E676-4BA5-A77A-185EE75A4B25}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="12">
   <si>
     <t>Josemar Silva</t>
   </si>
@@ -48,21 +48,12 @@
   </si>
   <si>
     <t>Col-D(Text)</t>
-  </si>
-  <si>
-    <t>Col-F(Double-fmt)</t>
   </si>
   <si>
     <t>Você é o poema mais lindo que escrevi dentro de mim
 Ao seu lado é como se eu não existisse</t>
   </si>
   <si>
-    <t>Col-E(Double-fmt)</t>
-  </si>
-  <si>
-    <t>Col-G(DateTime)</t>
-  </si>
-  <si>
     <t>Col-B(Text)</t>
   </si>
   <si>
@@ -76,18 +67,23 @@
   </si>
   <si>
     <t>Vitor Silva</t>
+  </si>
+  <si>
+    <t>Col-F(DateTime)</t>
+  </si>
+  <si>
+    <t>Col-E(Double-BigInt)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="0.00000"/>
-    <numFmt numFmtId="165" formatCode="0_ ;\-0\ "/>
-    <numFmt numFmtId="166" formatCode="#,##0.000"/>
-    <numFmt numFmtId="167" formatCode="#,##0.0000000000"/>
+    <numFmt numFmtId="164" formatCode="0_ ;\-0\ "/>
+    <numFmt numFmtId="165" formatCode="#,##0.000"/>
+    <numFmt numFmtId="166" formatCode="#,##0.0000000000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -149,13 +145,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -168,12 +163,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -491,53 +486,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F90794C-5C2F-416A-AE61-3811430F8DE1}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="35.28515625" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F1" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
-        <v>1.01</v>
+      <c r="B2" s="12">
+        <v>3.14159265358979</v>
       </c>
       <c r="C2" s="2">
         <v>25318</v>
@@ -545,21 +535,18 @@
       <c r="D2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="4">
         <v>123456789012345</v>
       </c>
-      <c r="F2" s="3">
-        <v>3.1415926535897931</v>
-      </c>
-      <c r="G2" s="11">
+      <c r="F2" s="10">
         <v>38102.624305555553</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="11">
         <v>2</v>
       </c>
       <c r="C3" s="2">
@@ -568,13 +555,10 @@
       <c r="D3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="4">
         <v>2E+19</v>
       </c>
-      <c r="F3" s="13">
-        <v>3.14159265358979</v>
-      </c>
-      <c r="G3" s="11">
+      <c r="F3" s="10">
         <v>38102.624305555553</v>
       </c>
     </row>
@@ -600,11 +584,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>8</v>
+      <c r="B1" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -620,7 +604,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -643,13 +627,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="B1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
@@ -673,51 +657,51 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FBCDF79-F2B5-4481-A032-20F1D7DE6246}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="6"/>
-    <col min="3" max="3" width="10.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="69" style="6" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="2" width="9.140625" style="5"/>
+    <col min="3" max="3" width="10.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="69" style="5" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="B1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>10</v>
+      <c r="D1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="7">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="7">
         <v>38285</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2" s="9">
         <v>123456789012345</v>
       </c>
-      <c r="E2" s="9" t="s">
-        <v>5</v>
+      <c r="E2" s="8" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
